--- a/Unverified multiformat sources/Imports_1731_Nantes Hasna à faire corriger.xlsx
+++ b/Unverified multiformat sources/Imports_1731_Nantes Hasna à faire corriger.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Documents/Recherche/Commerce International Français XVIIIe.xls/Balance du commerce/Retranscriptions_Commerce_France/toflit18_data_GIT/Unverified multiformat sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290F5080-DB6B-BE43-95DE-8E49A67546C3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55DF9D1-2AF2-AC45-9DAA-CFD98A1FF13C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entrées" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017" iterateDelta="1E-4"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Entrées!$A$1:$Y$368</definedName>
+  </definedNames>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="382">
   <si>
     <t>numrodeligne</t>
   </si>
@@ -585,15 +588,6 @@
     <t>moine a ???</t>
   </si>
   <si>
-    <t>mats de navire</t>
-  </si>
-  <si>
-    <t>42 à 65 pieds</t>
-  </si>
-  <si>
-    <t>45 à 50 pieds</t>
-  </si>
-  <si>
     <t>matereaux</t>
   </si>
   <si>
@@ -678,42 +672,15 @@
     <t>plats de bois</t>
   </si>
   <si>
-    <t>planches de prusse</t>
-  </si>
-  <si>
-    <t>27 pieds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">planches de sapin </t>
-  </si>
-  <si>
-    <t>28 pieds</t>
-  </si>
-  <si>
-    <t>15 à 18 pieds</t>
-  </si>
-  <si>
-    <t>10 pieds</t>
-  </si>
-  <si>
     <t>255 livres à 100 livres les 100</t>
   </si>
   <si>
-    <t>8 à 9 pieds</t>
-  </si>
-  <si>
     <t>5546 livres à 85 livres les 100</t>
   </si>
   <si>
-    <t>7 à 8 pieds</t>
-  </si>
-  <si>
     <t>22497 livres à 75 livres les 100</t>
   </si>
   <si>
-    <t>4 pieds</t>
-  </si>
-  <si>
     <t>222 livres à 30 livres les 100</t>
   </si>
   <si>
@@ -834,12 +801,6 @@
     <t>l? de fer</t>
   </si>
   <si>
-    <t>courbes de chesne</t>
-  </si>
-  <si>
-    <t>9 pieds</t>
-  </si>
-  <si>
     <t>fusils</t>
   </si>
   <si>
@@ -858,15 +819,6 @@
     <t>mercerie grosse</t>
   </si>
   <si>
-    <t>mats de sapin</t>
-  </si>
-  <si>
-    <t>50 pieds</t>
-  </si>
-  <si>
-    <t>32 pieds</t>
-  </si>
-  <si>
     <t>merrain a ferraille</t>
   </si>
   <si>
@@ -882,21 +834,6 @@
     <t>planches de sapin</t>
   </si>
   <si>
-    <t>25 pieds</t>
-  </si>
-  <si>
-    <t>15 pieds</t>
-  </si>
-  <si>
-    <t>12 pieds</t>
-  </si>
-  <si>
-    <t>9 à 10 pieds</t>
-  </si>
-  <si>
-    <t>10 à 10 pieds</t>
-  </si>
-  <si>
     <t>demi planches</t>
   </si>
   <si>
@@ -1125,9 +1062,6 @@
     <t>mercerie de retour</t>
   </si>
   <si>
-    <t>madriers de bois d'acajou</t>
-  </si>
-  <si>
     <t>ongles d'ecailles de tortuë</t>
   </si>
   <si>
@@ -1137,9 +1071,6 @@
     <t>porcelaine</t>
   </si>
   <si>
-    <t>planches d'acajou</t>
-  </si>
-  <si>
     <t>quinquaille de retour</t>
   </si>
   <si>
@@ -1180,6 +1111,69 @@
   </si>
   <si>
     <t>probleme</t>
+  </si>
+  <si>
+    <t>mats de navire de 42 à 65 pieds</t>
+  </si>
+  <si>
+    <t>mats de navire de 45 à 50 pieds</t>
+  </si>
+  <si>
+    <t>planches de prusse de 27 pieds</t>
+  </si>
+  <si>
+    <t>planches de sapin de 28 pieds</t>
+  </si>
+  <si>
+    <t>planches de sapin de 15 à 18 pieds</t>
+  </si>
+  <si>
+    <t>planches de sapin de 10 pieds</t>
+  </si>
+  <si>
+    <t>planches de sapin de 8 à 9 pieds</t>
+  </si>
+  <si>
+    <t>planches de sapin de 7 à 8 pieds</t>
+  </si>
+  <si>
+    <t>planches de sapin de 4 pieds</t>
+  </si>
+  <si>
+    <t>courbes de chesne de 9 pieds</t>
+  </si>
+  <si>
+    <t>mats de sapin de 50 pieds</t>
+  </si>
+  <si>
+    <t>matereaux de 32 pieds</t>
+  </si>
+  <si>
+    <t>planches de prusse de 28 pieds</t>
+  </si>
+  <si>
+    <t>planches de sapin de 25 pieds</t>
+  </si>
+  <si>
+    <t>planches de sapin de 15 pieds</t>
+  </si>
+  <si>
+    <t>planches de sapin de 12 pieds</t>
+  </si>
+  <si>
+    <t>planches de sapin de 9 à 10 pieds</t>
+  </si>
+  <si>
+    <t>madriers de bois d'acajou de 9 à 10 pieds</t>
+  </si>
+  <si>
+    <t>planches d'acajou de 12 pieds</t>
+  </si>
+  <si>
+    <t>planches d'acajou de 10 pieds</t>
+  </si>
+  <si>
+    <t>pièces</t>
   </si>
 </sst>
 </file>
@@ -1841,10 +1835,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1944,7 +1938,7 @@
         <v>21</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="X1" s="20" t="s">
         <v>22</v>
@@ -1964,7 +1958,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>25</v>
@@ -2038,7 +2032,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>25</v>
@@ -2114,7 +2108,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>25</v>
@@ -2188,7 +2182,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>25</v>
@@ -2262,7 +2256,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>25</v>
@@ -2336,7 +2330,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
@@ -2406,7 +2400,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>25</v>
@@ -2482,7 +2476,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>25</v>
@@ -2556,7 +2550,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>25</v>
@@ -2630,7 +2624,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
@@ -2704,7 +2698,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>25</v>
@@ -2778,7 +2772,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>25</v>
@@ -2854,7 +2848,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>25</v>
@@ -2928,7 +2922,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>25</v>
@@ -3002,7 +2996,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>25</v>
@@ -3076,7 +3070,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>25</v>
@@ -3150,7 +3144,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>25</v>
@@ -3226,7 +3220,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>25</v>
@@ -3300,7 +3294,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>25</v>
@@ -3374,7 +3368,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>25</v>
@@ -3448,7 +3442,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>25</v>
@@ -3522,7 +3516,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>25</v>
@@ -3596,7 +3590,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>25</v>
@@ -3670,7 +3664,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>25</v>
@@ -3744,7 +3738,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>25</v>
@@ -3818,7 +3812,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>25</v>
@@ -3892,7 +3886,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>25</v>
@@ -3968,7 +3962,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>25</v>
@@ -4042,7 +4036,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>25</v>
@@ -4116,7 +4110,7 @@
         <v>24</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>25</v>
@@ -4192,7 +4186,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>25</v>
@@ -4266,7 +4260,7 @@
         <v>24</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>25</v>
@@ -4342,7 +4336,7 @@
         <v>24</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>25</v>
@@ -4418,7 +4412,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>25</v>
@@ -4494,7 +4488,7 @@
         <v>24</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>25</v>
@@ -4568,7 +4562,7 @@
         <v>24</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>25</v>
@@ -4642,7 +4636,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>25</v>
@@ -4716,7 +4710,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>25</v>
@@ -4790,7 +4784,7 @@
         <v>24</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>25</v>
@@ -4864,7 +4858,7 @@
         <v>24</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>25</v>
@@ -4938,7 +4932,7 @@
         <v>24</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>25</v>
@@ -5012,7 +5006,7 @@
         <v>24</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>25</v>
@@ -5086,7 +5080,7 @@
         <v>24</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>25</v>
@@ -5160,7 +5154,7 @@
         <v>24</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>25</v>
@@ -5234,7 +5228,7 @@
         <v>24</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>25</v>
@@ -5313,7 +5307,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>25</v>
@@ -5387,7 +5381,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>25</v>
@@ -5461,7 +5455,7 @@
         <v>24</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>25</v>
@@ -5535,7 +5529,7 @@
         <v>24</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>25</v>
@@ -5609,7 +5603,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>25</v>
@@ -5683,7 +5677,7 @@
         <v>24</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>25</v>
@@ -5759,7 +5753,7 @@
         <v>24</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>25</v>
@@ -5833,7 +5827,7 @@
         <v>24</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>25</v>
@@ -5907,7 +5901,7 @@
         <v>24</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>25</v>
@@ -5981,7 +5975,7 @@
         <v>24</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>25</v>
@@ -6057,7 +6051,7 @@
         <v>24</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>25</v>
@@ -6131,7 +6125,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>25</v>
@@ -6207,7 +6201,7 @@
         <v>24</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>25</v>
@@ -6283,7 +6277,7 @@
         <v>24</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>25</v>
@@ -6357,7 +6351,7 @@
         <v>24</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>25</v>
@@ -6431,7 +6425,7 @@
         <v>24</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>25</v>
@@ -6505,7 +6499,7 @@
         <v>24</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>25</v>
@@ -6579,7 +6573,7 @@
         <v>24</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>25</v>
@@ -6653,7 +6647,7 @@
         <v>24</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>25</v>
@@ -6727,7 +6721,7 @@
         <v>24</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>25</v>
@@ -6803,7 +6797,7 @@
         <v>24</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>25</v>
@@ -6877,7 +6871,7 @@
         <v>24</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>25</v>
@@ -6951,7 +6945,7 @@
         <v>24</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>25</v>
@@ -7025,7 +7019,7 @@
         <v>24</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>25</v>
@@ -7099,7 +7093,7 @@
         <v>24</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>25</v>
@@ -7173,7 +7167,7 @@
         <v>24</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>25</v>
@@ -7249,7 +7243,7 @@
         <v>24</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>25</v>
@@ -7323,7 +7317,7 @@
         <v>24</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>25</v>
@@ -7397,7 +7391,7 @@
         <v>24</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>25</v>
@@ -7473,7 +7467,7 @@
         <v>24</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>25</v>
@@ -7547,7 +7541,7 @@
         <v>24</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>25</v>
@@ -7621,7 +7615,7 @@
         <v>24</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>25</v>
@@ -7695,7 +7689,7 @@
         <v>24</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>25</v>
@@ -7769,7 +7763,7 @@
         <v>24</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>25</v>
@@ -7845,7 +7839,7 @@
         <v>24</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>25</v>
@@ -7919,7 +7913,7 @@
         <v>24</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>25</v>
@@ -7993,7 +7987,7 @@
         <v>24</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>25</v>
@@ -8067,7 +8061,7 @@
         <v>24</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>25</v>
@@ -8143,7 +8137,7 @@
         <v>24</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>25</v>
@@ -8217,7 +8211,7 @@
         <v>24</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>25</v>
@@ -8293,7 +8287,7 @@
         <v>24</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>25</v>
@@ -8367,7 +8361,7 @@
         <v>24</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>25</v>
@@ -8443,7 +8437,7 @@
         <v>24</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>25</v>
@@ -8517,7 +8511,7 @@
         <v>24</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>25</v>
@@ -8591,7 +8585,7 @@
         <v>24</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>25</v>
@@ -8665,7 +8659,7 @@
         <v>24</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>25</v>
@@ -8739,7 +8733,7 @@
         <v>24</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>25</v>
@@ -8813,7 +8807,7 @@
         <v>24</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>25</v>
@@ -8887,7 +8881,7 @@
         <v>24</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>25</v>
@@ -8963,7 +8957,7 @@
         <v>24</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>25</v>
@@ -9037,7 +9031,7 @@
         <v>24</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>25</v>
@@ -9113,7 +9107,7 @@
         <v>24</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>25</v>
@@ -9187,7 +9181,7 @@
         <v>24</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>25</v>
@@ -9261,7 +9255,7 @@
         <v>24</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>25</v>
@@ -9335,7 +9329,7 @@
         <v>24</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>25</v>
@@ -9409,7 +9403,7 @@
         <v>24</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>25</v>
@@ -9483,7 +9477,7 @@
         <v>24</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>25</v>
@@ -9557,7 +9551,7 @@
         <v>24</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>25</v>
@@ -9631,7 +9625,7 @@
         <v>24</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>25</v>
@@ -9705,7 +9699,7 @@
         <v>24</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>25</v>
@@ -9781,7 +9775,7 @@
         <v>24</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>25</v>
@@ -9857,7 +9851,7 @@
         <v>24</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>25</v>
@@ -9931,7 +9925,7 @@
         <v>24</v>
       </c>
       <c r="C109" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>25</v>
@@ -10005,7 +9999,7 @@
         <v>24</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>25</v>
@@ -10079,7 +10073,7 @@
         <v>24</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>25</v>
@@ -10155,7 +10149,7 @@
         <v>24</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>25</v>
@@ -10229,7 +10223,7 @@
         <v>24</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>25</v>
@@ -10303,7 +10297,7 @@
         <v>24</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>25</v>
@@ -10377,7 +10371,7 @@
         <v>24</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>25</v>
@@ -10451,7 +10445,7 @@
         <v>24</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>25</v>
@@ -10525,7 +10519,7 @@
         <v>24</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>25</v>
@@ -10601,7 +10595,7 @@
         <v>24</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>25</v>
@@ -10675,7 +10669,7 @@
         <v>24</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>25</v>
@@ -10751,7 +10745,7 @@
         <v>24</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>25</v>
@@ -10825,7 +10819,7 @@
         <v>24</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>25</v>
@@ -10899,7 +10893,7 @@
         <v>24</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>25</v>
@@ -10973,7 +10967,7 @@
         <v>24</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>25</v>
@@ -11047,7 +11041,7 @@
         <v>24</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>25</v>
@@ -11121,7 +11115,7 @@
         <v>24</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>25</v>
@@ -11195,7 +11189,7 @@
         <v>24</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>25</v>
@@ -11269,7 +11263,7 @@
         <v>24</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>25</v>
@@ -11343,7 +11337,7 @@
         <v>24</v>
       </c>
       <c r="C128" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>25</v>
@@ -11417,7 +11411,7 @@
         <v>24</v>
       </c>
       <c r="C129" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>25</v>
@@ -11491,7 +11485,7 @@
         <v>24</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>25</v>
@@ -11565,7 +11559,7 @@
         <v>24</v>
       </c>
       <c r="C131" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>25</v>
@@ -11639,7 +11633,7 @@
         <v>24</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>25</v>
@@ -11713,7 +11707,7 @@
         <v>24</v>
       </c>
       <c r="C133" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>25</v>
@@ -11789,7 +11783,7 @@
         <v>24</v>
       </c>
       <c r="C134" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>25</v>
@@ -11863,7 +11857,7 @@
         <v>24</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>25</v>
@@ -11937,7 +11931,7 @@
         <v>24</v>
       </c>
       <c r="C136" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>25</v>
@@ -12013,7 +12007,7 @@
         <v>24</v>
       </c>
       <c r="C137" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>25</v>
@@ -12087,7 +12081,7 @@
         <v>24</v>
       </c>
       <c r="C138" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>25</v>
@@ -12163,7 +12157,7 @@
         <v>24</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>25</v>
@@ -12239,7 +12233,7 @@
         <v>24</v>
       </c>
       <c r="C140" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>25</v>
@@ -12299,7 +12293,7 @@
         <v>24</v>
       </c>
       <c r="C141" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>25</v>
@@ -12373,7 +12367,7 @@
         <v>24</v>
       </c>
       <c r="C142" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>25</v>
@@ -12449,7 +12443,7 @@
         <v>24</v>
       </c>
       <c r="C143" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>25</v>
@@ -12523,7 +12517,7 @@
         <v>24</v>
       </c>
       <c r="C144" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>25</v>
@@ -12597,7 +12591,7 @@
         <v>24</v>
       </c>
       <c r="C145" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>25</v>
@@ -12671,7 +12665,7 @@
         <v>24</v>
       </c>
       <c r="C146" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>25</v>
@@ -12692,7 +12686,7 @@
         <v>4</v>
       </c>
       <c r="J146" s="23" t="s">
-        <v>186</v>
+        <v>361</v>
       </c>
       <c r="K146" s="24" t="s">
         <v>67</v>
@@ -12701,7 +12695,7 @@
         <v>35</v>
       </c>
       <c r="M146" s="26" t="s">
-        <v>187</v>
+        <v>381</v>
       </c>
       <c r="N146" s="27">
         <v>350</v>
@@ -12745,7 +12739,7 @@
         <v>24</v>
       </c>
       <c r="C147" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>25</v>
@@ -12766,7 +12760,7 @@
         <v>4</v>
       </c>
       <c r="J147" s="23" t="s">
-        <v>186</v>
+        <v>362</v>
       </c>
       <c r="K147" s="24" t="s">
         <v>67</v>
@@ -12775,7 +12769,7 @@
         <v>22</v>
       </c>
       <c r="M147" s="26" t="s">
-        <v>188</v>
+        <v>381</v>
       </c>
       <c r="N147" s="27">
         <v>300</v>
@@ -12819,7 +12813,7 @@
         <v>24</v>
       </c>
       <c r="C148" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>25</v>
@@ -12840,7 +12834,7 @@
         <v>4</v>
       </c>
       <c r="J148" s="23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K148" s="24" t="s">
         <v>67</v>
@@ -12893,7 +12887,7 @@
         <v>24</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>25</v>
@@ -12914,7 +12908,7 @@
         <v>4</v>
       </c>
       <c r="J149" s="23" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K149" s="24" t="s">
         <v>67</v>
@@ -12923,7 +12917,7 @@
         <v>230</v>
       </c>
       <c r="M149" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N149" s="27">
         <v>3.5</v>
@@ -12967,7 +12961,7 @@
         <v>24</v>
       </c>
       <c r="C150" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>25</v>
@@ -12988,7 +12982,7 @@
         <v>4</v>
       </c>
       <c r="J150" s="23" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K150" s="24" t="s">
         <v>67</v>
@@ -12997,7 +12991,7 @@
         <v>870</v>
       </c>
       <c r="M150" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N150" s="27">
         <v>1.5</v>
@@ -13041,7 +13035,7 @@
         <v>24</v>
       </c>
       <c r="C151" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>25</v>
@@ -13062,7 +13056,7 @@
         <v>4</v>
       </c>
       <c r="J151" s="23" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K151" s="24" t="s">
         <v>67</v>
@@ -13115,7 +13109,7 @@
         <v>24</v>
       </c>
       <c r="C152" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>25</v>
@@ -13136,7 +13130,7 @@
         <v>4</v>
       </c>
       <c r="J152" s="23" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K152" s="24" t="s">
         <v>67</v>
@@ -13189,7 +13183,7 @@
         <v>24</v>
       </c>
       <c r="C153" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>25</v>
@@ -13210,7 +13204,7 @@
         <v>4</v>
       </c>
       <c r="J153" s="23" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K153" s="24" t="s">
         <v>67</v>
@@ -13219,7 +13213,7 @@
         <v>500</v>
       </c>
       <c r="M153" s="26" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N153" s="27"/>
       <c r="O153" s="27">
@@ -13263,7 +13257,7 @@
         <v>24</v>
       </c>
       <c r="C154" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>25</v>
@@ -13284,7 +13278,7 @@
         <v>4</v>
       </c>
       <c r="J154" s="23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K154" s="24" t="s">
         <v>67</v>
@@ -13339,7 +13333,7 @@
         <v>24</v>
       </c>
       <c r="C155" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>25</v>
@@ -13360,7 +13354,7 @@
         <v>4</v>
       </c>
       <c r="J155" s="23" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K155" s="24" t="s">
         <v>67</v>
@@ -13415,7 +13409,7 @@
         <v>24</v>
       </c>
       <c r="C156" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>25</v>
@@ -13436,7 +13430,7 @@
         <v>4</v>
       </c>
       <c r="J156" s="23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K156" s="24" t="s">
         <v>67</v>
@@ -13489,7 +13483,7 @@
         <v>24</v>
       </c>
       <c r="C157" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>25</v>
@@ -13510,7 +13504,7 @@
         <v>4</v>
       </c>
       <c r="J157" s="23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K157" s="24" t="s">
         <v>67</v>
@@ -13565,7 +13559,7 @@
         <v>24</v>
       </c>
       <c r="C158" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>25</v>
@@ -13586,7 +13580,7 @@
         <v>4</v>
       </c>
       <c r="J158" s="23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K158" s="24" t="s">
         <v>67</v>
@@ -13639,7 +13633,7 @@
         <v>24</v>
       </c>
       <c r="C159" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>25</v>
@@ -13660,7 +13654,7 @@
         <v>4</v>
       </c>
       <c r="J159" s="36" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K159" s="24" t="s">
         <v>67</v>
@@ -13713,7 +13707,7 @@
         <v>24</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>25</v>
@@ -13734,7 +13728,7 @@
         <v>4</v>
       </c>
       <c r="J160" s="36" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K160" s="24" t="s">
         <v>67</v>
@@ -13789,7 +13783,7 @@
         <v>24</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>25</v>
@@ -13810,7 +13804,7 @@
         <v>4</v>
       </c>
       <c r="J161" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K161" s="24" t="s">
         <v>67</v>
@@ -13863,7 +13857,7 @@
         <v>24</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>25</v>
@@ -13884,7 +13878,7 @@
         <v>4</v>
       </c>
       <c r="J162" s="23" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K162" s="24" t="s">
         <v>67</v>
@@ -13937,7 +13931,7 @@
         <v>24</v>
       </c>
       <c r="C163" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>25</v>
@@ -13958,7 +13952,7 @@
         <v>4</v>
       </c>
       <c r="J163" s="23" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K163" s="24" t="s">
         <v>67</v>
@@ -14011,7 +14005,7 @@
         <v>24</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>25</v>
@@ -14032,7 +14026,7 @@
         <v>4</v>
       </c>
       <c r="J164" s="23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K164" s="24" t="s">
         <v>67</v>
@@ -14041,7 +14035,7 @@
         <v>215</v>
       </c>
       <c r="M164" s="26" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N164" s="27"/>
       <c r="O164" s="27">
@@ -14087,7 +14081,7 @@
         <v>24</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>25</v>
@@ -14108,7 +14102,7 @@
         <v>4</v>
       </c>
       <c r="J165" s="23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K165" s="24" t="s">
         <v>67</v>
@@ -14163,7 +14157,7 @@
         <v>24</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>25</v>
@@ -14184,7 +14178,7 @@
         <v>4</v>
       </c>
       <c r="J166" s="23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K166" s="24" t="s">
         <v>67</v>
@@ -14237,7 +14231,7 @@
         <v>24</v>
       </c>
       <c r="C167" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>25</v>
@@ -14258,7 +14252,7 @@
         <v>4</v>
       </c>
       <c r="J167" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K167" s="24" t="s">
         <v>67</v>
@@ -14311,7 +14305,7 @@
         <v>24</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>25</v>
@@ -14332,7 +14326,7 @@
         <v>4</v>
       </c>
       <c r="J168" s="23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K168" s="24" t="s">
         <v>67</v>
@@ -14385,7 +14379,7 @@
         <v>24</v>
       </c>
       <c r="C169" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>25</v>
@@ -14406,7 +14400,7 @@
         <v>4</v>
       </c>
       <c r="J169" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K169" s="24" t="s">
         <v>67</v>
@@ -14459,7 +14453,7 @@
         <v>24</v>
       </c>
       <c r="C170" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>25</v>
@@ -14480,7 +14474,7 @@
         <v>4</v>
       </c>
       <c r="J170" s="23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K170" s="24" t="s">
         <v>67</v>
@@ -14489,7 +14483,7 @@
         <v>6480</v>
       </c>
       <c r="M170" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N170" s="27"/>
       <c r="O170" s="27">
@@ -14533,7 +14527,7 @@
         <v>24</v>
       </c>
       <c r="C171" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>25</v>
@@ -14554,7 +14548,7 @@
         <v>4</v>
       </c>
       <c r="J171" s="23" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K171" s="24" t="s">
         <v>67</v>
@@ -14611,7 +14605,7 @@
         <v>24</v>
       </c>
       <c r="C172" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>25</v>
@@ -14632,7 +14626,7 @@
         <v>4</v>
       </c>
       <c r="J172" s="23" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K172" s="24" t="s">
         <v>67</v>
@@ -14687,7 +14681,7 @@
         <v>24</v>
       </c>
       <c r="C173" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>25</v>
@@ -14708,7 +14702,7 @@
         <v>4</v>
       </c>
       <c r="J173" s="23" t="s">
-        <v>217</v>
+        <v>363</v>
       </c>
       <c r="K173" s="24" t="s">
         <v>67</v>
@@ -14717,7 +14711,7 @@
         <v>1053</v>
       </c>
       <c r="M173" s="26" t="s">
-        <v>218</v>
+        <v>381</v>
       </c>
       <c r="N173" s="27">
         <v>4</v>
@@ -14761,7 +14755,7 @@
         <v>24</v>
       </c>
       <c r="C174" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>25</v>
@@ -14782,7 +14776,7 @@
         <v>4</v>
       </c>
       <c r="J174" s="23" t="s">
-        <v>219</v>
+        <v>364</v>
       </c>
       <c r="K174" s="24" t="s">
         <v>67</v>
@@ -14791,7 +14785,7 @@
         <v>602</v>
       </c>
       <c r="M174" s="26" t="s">
-        <v>220</v>
+        <v>381</v>
       </c>
       <c r="N174" s="27">
         <v>4</v>
@@ -14841,7 +14835,7 @@
         <v>24</v>
       </c>
       <c r="C175" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>25</v>
@@ -14862,7 +14856,7 @@
         <v>4</v>
       </c>
       <c r="J175" s="23" t="s">
-        <v>219</v>
+        <v>365</v>
       </c>
       <c r="K175" s="24" t="s">
         <v>67</v>
@@ -14871,7 +14865,7 @@
         <v>317</v>
       </c>
       <c r="M175" s="26" t="s">
-        <v>221</v>
+        <v>381</v>
       </c>
       <c r="N175" s="27"/>
       <c r="O175" s="27">
@@ -14917,7 +14911,7 @@
         <v>24</v>
       </c>
       <c r="C176" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>25</v>
@@ -14938,7 +14932,7 @@
         <v>4</v>
       </c>
       <c r="J176" s="23" t="s">
-        <v>219</v>
+        <v>366</v>
       </c>
       <c r="K176" s="24" t="s">
         <v>67</v>
@@ -14948,7 +14942,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="M176" s="26" t="s">
-        <v>222</v>
+        <v>381</v>
       </c>
       <c r="N176" s="27">
         <v>100</v>
@@ -14977,7 +14971,7 @@
         <v>0</v>
       </c>
       <c r="X176" s="22" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="Y176" s="34">
         <v>1</v>
@@ -14994,7 +14988,7 @@
         <v>24</v>
       </c>
       <c r="C177" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>25</v>
@@ -15015,7 +15009,7 @@
         <v>4</v>
       </c>
       <c r="J177" s="23" t="s">
-        <v>219</v>
+        <v>367</v>
       </c>
       <c r="K177" s="24" t="s">
         <v>67</v>
@@ -15025,7 +15019,7 @@
         <v>55.46</v>
       </c>
       <c r="M177" s="26" t="s">
-        <v>224</v>
+        <v>381</v>
       </c>
       <c r="N177" s="27">
         <v>85</v>
@@ -15056,7 +15050,7 @@
         <v>0</v>
       </c>
       <c r="X177" s="22" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="Y177" s="34">
         <v>1</v>
@@ -15073,7 +15067,7 @@
         <v>24</v>
       </c>
       <c r="C178" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>25</v>
@@ -15094,7 +15088,7 @@
         <v>4</v>
       </c>
       <c r="J178" s="23" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="K178" s="24" t="s">
         <v>67</v>
@@ -15104,7 +15098,7 @@
         <v>224.97</v>
       </c>
       <c r="M178" s="26" t="s">
-        <v>226</v>
+        <v>381</v>
       </c>
       <c r="N178" s="27">
         <v>75</v>
@@ -15135,7 +15129,7 @@
         <v>0</v>
       </c>
       <c r="X178" s="22" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="Y178" s="34">
         <v>1</v>
@@ -15152,7 +15146,7 @@
         <v>24</v>
       </c>
       <c r="C179" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>25</v>
@@ -15173,7 +15167,7 @@
         <v>4</v>
       </c>
       <c r="J179" s="23" t="s">
-        <v>219</v>
+        <v>369</v>
       </c>
       <c r="K179" s="24" t="s">
         <v>67</v>
@@ -15183,7 +15177,7 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="M179" s="26" t="s">
-        <v>228</v>
+        <v>381</v>
       </c>
       <c r="N179" s="27">
         <v>30</v>
@@ -15214,7 +15208,7 @@
         <v>0</v>
       </c>
       <c r="X179" s="22" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="Y179" s="34">
         <v>1</v>
@@ -15231,7 +15225,7 @@
         <v>24</v>
       </c>
       <c r="C180" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>25</v>
@@ -15309,7 +15303,7 @@
         <v>24</v>
       </c>
       <c r="C181" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>25</v>
@@ -15330,7 +15324,7 @@
         <v>4</v>
       </c>
       <c r="J181" s="23" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="K181" s="24" t="s">
         <v>67</v>
@@ -15385,7 +15379,7 @@
         <v>24</v>
       </c>
       <c r="C182" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>25</v>
@@ -15406,7 +15400,7 @@
         <v>4</v>
       </c>
       <c r="J182" s="23" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="K182" s="24" t="s">
         <v>67</v>
@@ -15459,7 +15453,7 @@
         <v>24</v>
       </c>
       <c r="C183" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>25</v>
@@ -15480,7 +15474,7 @@
         <v>4</v>
       </c>
       <c r="J183" s="23" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="K183" s="24" t="s">
         <v>67</v>
@@ -15535,7 +15529,7 @@
         <v>24</v>
       </c>
       <c r="C184" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>25</v>
@@ -15556,7 +15550,7 @@
         <v>4</v>
       </c>
       <c r="J184" s="23" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K184" s="24" t="s">
         <v>67</v>
@@ -15611,7 +15605,7 @@
         <v>24</v>
       </c>
       <c r="C185" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>25</v>
@@ -15632,7 +15626,7 @@
         <v>4</v>
       </c>
       <c r="J185" s="23" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="K185" s="24" t="s">
         <v>67</v>
@@ -15685,7 +15679,7 @@
         <v>24</v>
       </c>
       <c r="C186" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>25</v>
@@ -15706,7 +15700,7 @@
         <v>4</v>
       </c>
       <c r="J186" s="23" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="K186" s="24" t="s">
         <v>67</v>
@@ -15759,7 +15753,7 @@
         <v>24</v>
       </c>
       <c r="C187" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>25</v>
@@ -15780,7 +15774,7 @@
         <v>4</v>
       </c>
       <c r="J187" s="36" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="K187" s="24" t="s">
         <v>67</v>
@@ -15833,7 +15827,7 @@
         <v>24</v>
       </c>
       <c r="C188" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>25</v>
@@ -15854,7 +15848,7 @@
         <v>4</v>
       </c>
       <c r="J188" s="23" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="K188" s="24" t="s">
         <v>67</v>
@@ -15907,7 +15901,7 @@
         <v>24</v>
       </c>
       <c r="C189" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>25</v>
@@ -15928,7 +15922,7 @@
         <v>4</v>
       </c>
       <c r="J189" s="23" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="K189" s="24" t="s">
         <v>67</v>
@@ -15967,7 +15961,7 @@
         <v>0</v>
       </c>
       <c r="X189" s="22" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="Y189" s="34">
         <v>1</v>
@@ -15984,7 +15978,7 @@
         <v>24</v>
       </c>
       <c r="C190" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>25</v>
@@ -16005,7 +15999,7 @@
         <v>4</v>
       </c>
       <c r="J190" s="23" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="K190" s="24" t="s">
         <v>67</v>
@@ -16044,7 +16038,7 @@
         <v>0</v>
       </c>
       <c r="X190" s="22" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="Y190" s="34">
         <v>1</v>
@@ -16061,7 +16055,7 @@
         <v>24</v>
       </c>
       <c r="C191" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>25</v>
@@ -16082,7 +16076,7 @@
         <v>4</v>
       </c>
       <c r="J191" s="23" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="K191" s="24" t="s">
         <v>67</v>
@@ -16135,7 +16129,7 @@
         <v>24</v>
       </c>
       <c r="C192" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>25</v>
@@ -16156,7 +16150,7 @@
         <v>4</v>
       </c>
       <c r="J192" s="23" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="K192" s="24" t="s">
         <v>67</v>
@@ -16211,7 +16205,7 @@
         <v>24</v>
       </c>
       <c r="C193" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>25</v>
@@ -16232,7 +16226,7 @@
         <v>4</v>
       </c>
       <c r="J193" s="23" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="K193" s="24" t="s">
         <v>67</v>
@@ -16285,7 +16279,7 @@
         <v>24</v>
       </c>
       <c r="C194" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>25</v>
@@ -16306,7 +16300,7 @@
         <v>4</v>
       </c>
       <c r="J194" s="23" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="K194" s="24" t="s">
         <v>67</v>
@@ -16359,7 +16353,7 @@
         <v>24</v>
       </c>
       <c r="C195" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>25</v>
@@ -16380,7 +16374,7 @@
         <v>5</v>
       </c>
       <c r="J195" s="23" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="K195" s="24" t="s">
         <v>67</v>
@@ -16433,7 +16427,7 @@
         <v>24</v>
       </c>
       <c r="C196" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>25</v>
@@ -16454,7 +16448,7 @@
         <v>5</v>
       </c>
       <c r="J196" s="23" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="K196" s="24" t="s">
         <v>67</v>
@@ -16507,7 +16501,7 @@
         <v>24</v>
       </c>
       <c r="C197" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>25</v>
@@ -16528,7 +16522,7 @@
         <v>5</v>
       </c>
       <c r="J197" s="23" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="K197" s="24" t="s">
         <v>67</v>
@@ -16581,7 +16575,7 @@
         <v>24</v>
       </c>
       <c r="C198" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>25</v>
@@ -16602,7 +16596,7 @@
         <v>5</v>
       </c>
       <c r="J198" s="23" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="K198" s="24" t="s">
         <v>67</v>
@@ -16657,7 +16651,7 @@
         <v>24</v>
       </c>
       <c r="C199" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>25</v>
@@ -16678,7 +16672,7 @@
         <v>5</v>
       </c>
       <c r="J199" s="23" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="K199" s="24" t="s">
         <v>67</v>
@@ -16731,7 +16725,7 @@
         <v>24</v>
       </c>
       <c r="C200" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>25</v>
@@ -16752,7 +16746,7 @@
         <v>5</v>
       </c>
       <c r="J200" s="23" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="K200" s="24" t="s">
         <v>67</v>
@@ -16807,7 +16801,7 @@
         <v>24</v>
       </c>
       <c r="C201" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>25</v>
@@ -16828,7 +16822,7 @@
         <v>5</v>
       </c>
       <c r="J201" s="23" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="K201" s="24" t="s">
         <v>67</v>
@@ -16881,7 +16875,7 @@
         <v>24</v>
       </c>
       <c r="C202" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>25</v>
@@ -16902,7 +16896,7 @@
         <v>5</v>
       </c>
       <c r="J202" s="36" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="K202" s="24" t="s">
         <v>67</v>
@@ -16955,7 +16949,7 @@
         <v>24</v>
       </c>
       <c r="C203" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>25</v>
@@ -16976,7 +16970,7 @@
         <v>5</v>
       </c>
       <c r="J203" s="23" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="K203" s="24" t="s">
         <v>67</v>
@@ -16985,7 +16979,7 @@
         <v>321</v>
       </c>
       <c r="M203" s="26" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="N203" s="27"/>
       <c r="O203" s="27">
@@ -17029,7 +17023,7 @@
         <v>24</v>
       </c>
       <c r="C204" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>25</v>
@@ -17053,7 +17047,7 @@
         <v>73</v>
       </c>
       <c r="K204" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L204" s="25">
         <v>17640</v>
@@ -17103,7 +17097,7 @@
         <v>24</v>
       </c>
       <c r="C205" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>25</v>
@@ -17124,10 +17118,10 @@
         <v>5</v>
       </c>
       <c r="J205" s="23" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="K205" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L205" s="25">
         <v>6370</v>
@@ -17181,7 +17175,7 @@
         <v>24</v>
       </c>
       <c r="C206" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>25</v>
@@ -17205,7 +17199,7 @@
         <v>74</v>
       </c>
       <c r="K206" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L206" s="25">
         <v>74150</v>
@@ -17257,7 +17251,7 @@
         <v>24</v>
       </c>
       <c r="C207" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>25</v>
@@ -17281,7 +17275,7 @@
         <v>71</v>
       </c>
       <c r="K207" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L207" s="25">
         <v>769</v>
@@ -17331,7 +17325,7 @@
         <v>24</v>
       </c>
       <c r="C208" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>25</v>
@@ -17352,10 +17346,10 @@
         <v>5</v>
       </c>
       <c r="J208" s="23" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="K208" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L208" s="25">
         <v>108</v>
@@ -17407,7 +17401,7 @@
         <v>24</v>
       </c>
       <c r="C209" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>25</v>
@@ -17428,10 +17422,10 @@
         <v>5</v>
       </c>
       <c r="J209" s="23" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="K209" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L209" s="25">
         <v>514</v>
@@ -17483,7 +17477,7 @@
         <v>24</v>
       </c>
       <c r="C210" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>25</v>
@@ -17504,10 +17498,10 @@
         <v>5</v>
       </c>
       <c r="J210" s="23" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="K210" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L210" s="25">
         <v>120</v>
@@ -17557,7 +17551,7 @@
         <v>24</v>
       </c>
       <c r="C211" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>25</v>
@@ -17581,7 +17575,7 @@
         <v>82</v>
       </c>
       <c r="K211" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L211" s="25">
         <v>880</v>
@@ -17631,7 +17625,7 @@
         <v>24</v>
       </c>
       <c r="C212" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>25</v>
@@ -17652,10 +17646,10 @@
         <v>5</v>
       </c>
       <c r="J212" s="23" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="K212" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L212" s="25">
         <v>598</v>
@@ -17707,7 +17701,7 @@
         <v>24</v>
       </c>
       <c r="C213" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>25</v>
@@ -17728,10 +17722,10 @@
         <v>5</v>
       </c>
       <c r="J213" s="23" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="K213" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L213" s="25">
         <v>300</v>
@@ -17781,7 +17775,7 @@
         <v>24</v>
       </c>
       <c r="C214" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>25</v>
@@ -17802,10 +17796,10 @@
         <v>5</v>
       </c>
       <c r="J214" s="23" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="K214" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L214" s="25">
         <v>360</v>
@@ -17855,7 +17849,7 @@
         <v>24</v>
       </c>
       <c r="C215" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>25</v>
@@ -17876,10 +17870,10 @@
         <v>5</v>
       </c>
       <c r="J215" s="23" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="K215" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L215" s="25">
         <v>5</v>
@@ -17929,7 +17923,7 @@
         <v>24</v>
       </c>
       <c r="C216" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>25</v>
@@ -17953,7 +17947,7 @@
         <v>107</v>
       </c>
       <c r="K216" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L216" s="25">
         <v>13050</v>
@@ -18003,7 +17997,7 @@
         <v>24</v>
       </c>
       <c r="C217" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>25</v>
@@ -18024,10 +18018,10 @@
         <v>5</v>
       </c>
       <c r="J217" s="23" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="K217" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L217" s="25">
         <v>584350</v>
@@ -18077,7 +18071,7 @@
         <v>24</v>
       </c>
       <c r="C218" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>25</v>
@@ -18101,7 +18095,7 @@
         <v>109</v>
       </c>
       <c r="K218" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L218" s="25">
         <v>16500</v>
@@ -18151,7 +18145,7 @@
         <v>24</v>
       </c>
       <c r="C219" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>25</v>
@@ -18172,10 +18166,10 @@
         <v>5</v>
       </c>
       <c r="J219" s="23" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="K219" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L219" s="25">
         <v>33000</v>
@@ -18225,7 +18219,7 @@
         <v>24</v>
       </c>
       <c r="C220" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>25</v>
@@ -18246,10 +18240,10 @@
         <v>5</v>
       </c>
       <c r="J220" s="23" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="K220" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L220" s="25">
         <v>200</v>
@@ -18299,7 +18293,7 @@
         <v>24</v>
       </c>
       <c r="C221" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>25</v>
@@ -18320,10 +18314,10 @@
         <v>5</v>
       </c>
       <c r="J221" s="36" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="K221" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L221" s="25">
         <v>3500</v>
@@ -18377,7 +18371,7 @@
         <v>24</v>
       </c>
       <c r="C222" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>25</v>
@@ -18401,7 +18395,7 @@
         <v>121</v>
       </c>
       <c r="K222" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L222" s="25">
         <v>120</v>
@@ -18451,7 +18445,7 @@
         <v>24</v>
       </c>
       <c r="C223" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>25</v>
@@ -18475,7 +18469,7 @@
         <v>121</v>
       </c>
       <c r="K223" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L223" s="25">
         <v>36</v>
@@ -18525,7 +18519,7 @@
         <v>24</v>
       </c>
       <c r="C224" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>25</v>
@@ -18549,7 +18543,7 @@
         <v>133</v>
       </c>
       <c r="K224" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L224" s="25">
         <v>4700</v>
@@ -18603,7 +18597,7 @@
         <v>24</v>
       </c>
       <c r="C225" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>25</v>
@@ -18624,16 +18618,16 @@
         <v>5</v>
       </c>
       <c r="J225" s="23" t="s">
-        <v>269</v>
+        <v>370</v>
       </c>
       <c r="K225" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L225" s="25">
         <v>14</v>
       </c>
       <c r="M225" s="26" t="s">
-        <v>270</v>
+        <v>381</v>
       </c>
       <c r="N225" s="27"/>
       <c r="O225" s="27">
@@ -18677,7 +18671,7 @@
         <v>24</v>
       </c>
       <c r="C226" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>25</v>
@@ -18701,7 +18695,7 @@
         <v>142</v>
       </c>
       <c r="K226" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L226" s="25">
         <v>40</v>
@@ -18751,7 +18745,7 @@
         <v>24</v>
       </c>
       <c r="C227" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>25</v>
@@ -18772,10 +18766,10 @@
         <v>5</v>
       </c>
       <c r="J227" s="23" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="K227" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L227" s="25">
         <v>598</v>
@@ -18825,7 +18819,7 @@
         <v>24</v>
       </c>
       <c r="C228" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>25</v>
@@ -18846,10 +18840,10 @@
         <v>5</v>
       </c>
       <c r="J228" s="23" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="K228" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L228" s="25">
         <v>6150</v>
@@ -18899,7 +18893,7 @@
         <v>24</v>
       </c>
       <c r="C229" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>25</v>
@@ -18923,7 +18917,7 @@
         <v>154</v>
       </c>
       <c r="K229" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L229" s="25">
         <v>44</v>
@@ -18973,7 +18967,7 @@
         <v>24</v>
       </c>
       <c r="C230" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>25</v>
@@ -18997,7 +18991,7 @@
         <v>155</v>
       </c>
       <c r="K230" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L230" s="25">
         <v>8</v>
@@ -19047,7 +19041,7 @@
         <v>24</v>
       </c>
       <c r="C231" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>25</v>
@@ -19071,7 +19065,7 @@
         <v>159</v>
       </c>
       <c r="K231" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L231" s="25">
         <v>423400</v>
@@ -19123,7 +19117,7 @@
         <v>24</v>
       </c>
       <c r="C232" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>25</v>
@@ -19147,7 +19141,7 @@
         <v>166</v>
       </c>
       <c r="K232" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L232" s="25">
         <v>1190</v>
@@ -19197,7 +19191,7 @@
         <v>24</v>
       </c>
       <c r="C233" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>25</v>
@@ -19221,7 +19215,7 @@
         <v>173</v>
       </c>
       <c r="K233" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L233" s="25">
         <v>250</v>
@@ -19271,7 +19265,7 @@
         <v>24</v>
       </c>
       <c r="C234" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>25</v>
@@ -19292,10 +19286,10 @@
         <v>5</v>
       </c>
       <c r="J234" s="23" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="K234" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L234" s="25">
         <v>661</v>
@@ -19345,7 +19339,7 @@
         <v>24</v>
       </c>
       <c r="C235" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>25</v>
@@ -19369,7 +19363,7 @@
         <v>52</v>
       </c>
       <c r="K235" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L235" s="25">
         <v>3850</v>
@@ -19419,7 +19413,7 @@
         <v>24</v>
       </c>
       <c r="C236" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>25</v>
@@ -19440,10 +19434,10 @@
         <v>5</v>
       </c>
       <c r="J236" s="23" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="K236" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L236" s="25">
         <v>15650</v>
@@ -19493,7 +19487,7 @@
         <v>24</v>
       </c>
       <c r="C237" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>25</v>
@@ -19517,7 +19511,7 @@
         <v>178</v>
       </c>
       <c r="K237" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L237" s="25">
         <v>950</v>
@@ -19567,7 +19561,7 @@
         <v>24</v>
       </c>
       <c r="C238" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>25</v>
@@ -19588,10 +19582,10 @@
         <v>5</v>
       </c>
       <c r="J238" s="36" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="K238" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L238" s="25">
         <v>6</v>
@@ -19641,7 +19635,7 @@
         <v>24</v>
       </c>
       <c r="C239" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>25</v>
@@ -19662,10 +19656,10 @@
         <v>5</v>
       </c>
       <c r="J239" s="23" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="K239" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L239" s="25">
         <v>215</v>
@@ -19715,7 +19709,7 @@
         <v>24</v>
       </c>
       <c r="C240" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>25</v>
@@ -19736,16 +19730,16 @@
         <v>5</v>
       </c>
       <c r="J240" s="36" t="s">
-        <v>277</v>
+        <v>371</v>
       </c>
       <c r="K240" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L240" s="25">
         <v>10</v>
       </c>
       <c r="M240" s="26" t="s">
-        <v>278</v>
+        <v>381</v>
       </c>
       <c r="N240" s="27">
         <v>25</v>
@@ -19789,7 +19783,7 @@
         <v>24</v>
       </c>
       <c r="C241" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>25</v>
@@ -19810,16 +19804,16 @@
         <v>5</v>
       </c>
       <c r="J241" s="23" t="s">
-        <v>189</v>
+        <v>372</v>
       </c>
       <c r="K241" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L241" s="25">
         <v>19</v>
       </c>
       <c r="M241" s="26" t="s">
-        <v>279</v>
+        <v>381</v>
       </c>
       <c r="N241" s="27">
         <v>12</v>
@@ -19863,7 +19857,7 @@
         <v>24</v>
       </c>
       <c r="C242" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>25</v>
@@ -19884,16 +19878,16 @@
         <v>6</v>
       </c>
       <c r="J242" s="23" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K242" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L242" s="25">
         <v>24300</v>
       </c>
       <c r="M242" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N242" s="27">
         <v>3.5</v>
@@ -19939,7 +19933,7 @@
         <v>24</v>
       </c>
       <c r="C243" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>25</v>
@@ -19960,16 +19954,16 @@
         <v>6</v>
       </c>
       <c r="J243" s="23" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K243" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L243" s="25">
         <v>26900</v>
       </c>
       <c r="M243" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N243" s="27">
         <v>1.5</v>
@@ -20015,7 +20009,7 @@
         <v>24</v>
       </c>
       <c r="C244" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>25</v>
@@ -20036,10 +20030,10 @@
         <v>6</v>
       </c>
       <c r="J244" s="23" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="K244" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L244" s="25">
         <v>730</v>
@@ -20091,7 +20085,7 @@
         <v>24</v>
       </c>
       <c r="C245" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>25</v>
@@ -20112,16 +20106,16 @@
         <v>6</v>
       </c>
       <c r="J245" s="23" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K245" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L245" s="25">
         <v>12020</v>
       </c>
       <c r="M245" s="26" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N245" s="27"/>
       <c r="O245" s="27">
@@ -20165,7 +20159,7 @@
         <v>24</v>
       </c>
       <c r="C246" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>25</v>
@@ -20186,10 +20180,10 @@
         <v>6</v>
       </c>
       <c r="J246" s="23" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="K246" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L246" s="25">
         <v>6145</v>
@@ -20239,7 +20233,7 @@
         <v>24</v>
       </c>
       <c r="C247" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>25</v>
@@ -20260,10 +20254,10 @@
         <v>6</v>
       </c>
       <c r="J247" s="36" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="K247" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L247" s="25">
         <v>16411</v>
@@ -20313,7 +20307,7 @@
         <v>24</v>
       </c>
       <c r="C248" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>25</v>
@@ -20337,7 +20331,7 @@
         <v>53</v>
       </c>
       <c r="K248" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L248" s="25">
         <v>365200</v>
@@ -20387,7 +20381,7 @@
         <v>24</v>
       </c>
       <c r="C249" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>25</v>
@@ -20408,10 +20402,10 @@
         <v>6</v>
       </c>
       <c r="J249" s="23" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="K249" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L249" s="25">
         <v>7</v>
@@ -20461,7 +20455,7 @@
         <v>24</v>
       </c>
       <c r="C250" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>25</v>
@@ -20482,16 +20476,16 @@
         <v>6</v>
       </c>
       <c r="J250" s="23" t="s">
-        <v>217</v>
+        <v>373</v>
       </c>
       <c r="K250" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L250" s="25">
         <v>96</v>
       </c>
       <c r="M250" s="26" t="s">
-        <v>220</v>
+        <v>381</v>
       </c>
       <c r="N250" s="27">
         <v>4</v>
@@ -20539,7 +20533,7 @@
         <v>24</v>
       </c>
       <c r="C251" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>25</v>
@@ -20560,16 +20554,16 @@
         <v>6</v>
       </c>
       <c r="J251" s="23" t="s">
-        <v>284</v>
+        <v>374</v>
       </c>
       <c r="K251" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L251" s="25">
         <v>1540</v>
       </c>
       <c r="M251" s="26" t="s">
-        <v>285</v>
+        <v>381</v>
       </c>
       <c r="N251" s="27">
         <v>5</v>
@@ -20613,7 +20607,7 @@
         <v>24</v>
       </c>
       <c r="C252" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>25</v>
@@ -20634,16 +20628,16 @@
         <v>6</v>
       </c>
       <c r="J252" s="23" t="s">
-        <v>284</v>
+        <v>375</v>
       </c>
       <c r="K252" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L252" s="25">
         <v>663</v>
       </c>
       <c r="M252" s="26" t="s">
-        <v>286</v>
+        <v>381</v>
       </c>
       <c r="N252" s="27"/>
       <c r="O252" s="27">
@@ -20689,7 +20683,7 @@
         <v>24</v>
       </c>
       <c r="C253" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>25</v>
@@ -20710,16 +20704,16 @@
         <v>6</v>
       </c>
       <c r="J253" s="23" t="s">
-        <v>284</v>
+        <v>376</v>
       </c>
       <c r="K253" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L253" s="25">
         <v>4800</v>
       </c>
       <c r="M253" s="26" t="s">
-        <v>287</v>
+        <v>381</v>
       </c>
       <c r="N253" s="27">
         <v>1.2</v>
@@ -20763,7 +20757,7 @@
         <v>24</v>
       </c>
       <c r="C254" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>25</v>
@@ -20784,16 +20778,16 @@
         <v>6</v>
       </c>
       <c r="J254" s="23" t="s">
-        <v>284</v>
+        <v>377</v>
       </c>
       <c r="K254" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L254" s="25">
         <v>46250</v>
       </c>
       <c r="M254" s="26" t="s">
-        <v>288</v>
+        <v>381</v>
       </c>
       <c r="N254" s="27">
         <v>0.85</v>
@@ -20839,7 +20833,7 @@
         <v>24</v>
       </c>
       <c r="C255" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>25</v>
@@ -20860,16 +20854,16 @@
         <v>6</v>
       </c>
       <c r="J255" s="23" t="s">
-        <v>284</v>
+        <v>377</v>
       </c>
       <c r="K255" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L255" s="25">
         <v>4520</v>
       </c>
       <c r="M255" s="26" t="s">
-        <v>289</v>
+        <v>381</v>
       </c>
       <c r="N255" s="27"/>
       <c r="O255" s="27">
@@ -20913,7 +20907,7 @@
         <v>24</v>
       </c>
       <c r="C256" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>25</v>
@@ -20934,16 +20928,16 @@
         <v>6</v>
       </c>
       <c r="J256" s="23" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="K256" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L256" s="25">
         <v>2640</v>
       </c>
       <c r="M256" s="26" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="N256" s="27"/>
       <c r="O256" s="27">
@@ -20987,7 +20981,7 @@
         <v>24</v>
       </c>
       <c r="C257" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>25</v>
@@ -21008,10 +21002,10 @@
         <v>6</v>
       </c>
       <c r="J257" s="23" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="K257" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L257" s="25">
         <v>1060</v>
@@ -21061,7 +21055,7 @@
         <v>24</v>
       </c>
       <c r="C258" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>25</v>
@@ -21082,10 +21076,10 @@
         <v>6</v>
       </c>
       <c r="J258" s="23" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="K258" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L258" s="25">
         <v>413</v>
@@ -21135,7 +21129,7 @@
         <v>24</v>
       </c>
       <c r="C259" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>25</v>
@@ -21156,10 +21150,10 @@
         <v>6</v>
       </c>
       <c r="J259" s="23" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="K259" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L259" s="25">
         <v>24</v>
@@ -21209,7 +21203,7 @@
         <v>24</v>
       </c>
       <c r="C260" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>25</v>
@@ -21233,7 +21227,7 @@
         <v>57</v>
       </c>
       <c r="K260" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L260" s="25">
         <v>9490</v>
@@ -21285,7 +21279,7 @@
         <v>24</v>
       </c>
       <c r="C261" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>25</v>
@@ -21306,10 +21300,10 @@
         <v>6</v>
       </c>
       <c r="J261" s="23" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="K261" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L261" s="25">
         <v>2790</v>
@@ -21359,7 +21353,7 @@
         <v>24</v>
       </c>
       <c r="C262" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>25</v>
@@ -21380,10 +21374,10 @@
         <v>6</v>
       </c>
       <c r="J262" s="23" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="K262" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L262" s="25">
         <v>9925</v>
@@ -21435,7 +21429,7 @@
         <v>24</v>
       </c>
       <c r="C263" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>25</v>
@@ -21456,16 +21450,16 @@
         <v>6</v>
       </c>
       <c r="J263" s="23" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="K263" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L263" s="25">
         <v>392</v>
       </c>
       <c r="M263" s="35" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="N263" s="27">
         <v>4</v>
@@ -21509,7 +21503,7 @@
         <v>24</v>
       </c>
       <c r="C264" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>25</v>
@@ -21533,7 +21527,7 @@
         <v>82</v>
       </c>
       <c r="K264" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L264" s="25">
         <v>20</v>
@@ -21583,7 +21577,7 @@
         <v>24</v>
       </c>
       <c r="C265" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>25</v>
@@ -21604,10 +21598,10 @@
         <v>6</v>
       </c>
       <c r="J265" s="23" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="K265" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L265" s="25">
         <v>30</v>
@@ -21657,7 +21651,7 @@
         <v>24</v>
       </c>
       <c r="C266" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>25</v>
@@ -21678,10 +21672,10 @@
         <v>6</v>
       </c>
       <c r="J266" s="23" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="K266" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L266" s="25">
         <v>3820</v>
@@ -21731,7 +21725,7 @@
         <v>24</v>
       </c>
       <c r="C267" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>25</v>
@@ -21752,10 +21746,10 @@
         <v>6</v>
       </c>
       <c r="J267" s="23" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="K267" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L267" s="25">
         <v>20</v>
@@ -21807,7 +21801,7 @@
         <v>24</v>
       </c>
       <c r="C268" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>25</v>
@@ -21828,10 +21822,10 @@
         <v>6</v>
       </c>
       <c r="J268" s="23" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="K268" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L268" s="25">
         <v>36400</v>
@@ -21881,7 +21875,7 @@
         <v>24</v>
       </c>
       <c r="C269" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>25</v>
@@ -21902,10 +21896,10 @@
         <v>6</v>
       </c>
       <c r="J269" s="23" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="K269" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L269" s="25">
         <v>400</v>
@@ -21955,7 +21949,7 @@
         <v>24</v>
       </c>
       <c r="C270" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>25</v>
@@ -21976,10 +21970,10 @@
         <v>6</v>
       </c>
       <c r="J270" s="36" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="K270" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L270" s="25">
         <v>50</v>
@@ -22029,7 +22023,7 @@
         <v>24</v>
       </c>
       <c r="C271" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>25</v>
@@ -22050,10 +22044,10 @@
         <v>6</v>
       </c>
       <c r="J271" s="23" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="K271" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L271" s="25">
         <v>2</v>
@@ -22103,7 +22097,7 @@
         <v>24</v>
       </c>
       <c r="C272" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>25</v>
@@ -22124,16 +22118,16 @@
         <v>6</v>
       </c>
       <c r="J272" s="23" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="K272" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L272" s="25">
         <v>500</v>
       </c>
       <c r="M272" s="26" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="N272" s="27">
         <v>14</v>
@@ -22179,7 +22173,7 @@
         <v>24</v>
       </c>
       <c r="C273" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>25</v>
@@ -22203,7 +22197,7 @@
         <v>149</v>
       </c>
       <c r="K273" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L273" s="25">
         <v>2</v>
@@ -22253,7 +22247,7 @@
         <v>24</v>
       </c>
       <c r="C274" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>25</v>
@@ -22277,7 +22271,7 @@
         <v>159</v>
       </c>
       <c r="K274" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L274" s="25">
         <v>884250</v>
@@ -22329,7 +22323,7 @@
         <v>24</v>
       </c>
       <c r="C275" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>25</v>
@@ -22350,10 +22344,10 @@
         <v>6</v>
       </c>
       <c r="J275" s="23" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="K275" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L275" s="25">
         <v>60725</v>
@@ -22405,7 +22399,7 @@
         <v>24</v>
       </c>
       <c r="C276" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>25</v>
@@ -22426,10 +22420,10 @@
         <v>6</v>
       </c>
       <c r="J276" s="23" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="K276" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L276" s="25">
         <v>41400</v>
@@ -22479,7 +22473,7 @@
         <v>24</v>
       </c>
       <c r="C277" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>25</v>
@@ -22503,13 +22497,13 @@
         <v>50</v>
       </c>
       <c r="K277" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L277" s="25">
         <v>1</v>
       </c>
       <c r="M277" s="26" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="N277" s="27">
         <v>100</v>
@@ -22553,7 +22547,7 @@
         <v>24</v>
       </c>
       <c r="C278" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>25</v>
@@ -22577,7 +22571,7 @@
         <v>173</v>
       </c>
       <c r="K278" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L278" s="25">
         <v>1550</v>
@@ -22629,7 +22623,7 @@
         <v>24</v>
       </c>
       <c r="C279" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>25</v>
@@ -22650,10 +22644,10 @@
         <v>6</v>
       </c>
       <c r="J279" s="23" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="K279" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L279" s="25">
         <v>104950</v>
@@ -22703,7 +22697,7 @@
         <v>24</v>
       </c>
       <c r="C280" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>25</v>
@@ -22724,10 +22718,10 @@
         <v>6</v>
       </c>
       <c r="J280" s="23" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="K280" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L280" s="25">
         <v>6150</v>
@@ -22779,7 +22773,7 @@
         <v>24</v>
       </c>
       <c r="C281" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>25</v>
@@ -22800,10 +22794,10 @@
         <v>6</v>
       </c>
       <c r="J281" s="36" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="K281" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L281" s="25">
         <v>116</v>
@@ -22853,7 +22847,7 @@
         <v>24</v>
       </c>
       <c r="C282" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>25</v>
@@ -22874,10 +22868,10 @@
         <v>6</v>
       </c>
       <c r="J282" s="23" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="K282" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L282" s="25">
         <v>866</v>
@@ -22929,7 +22923,7 @@
         <v>24</v>
       </c>
       <c r="C283" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>25</v>
@@ -22950,16 +22944,16 @@
         <v>6</v>
       </c>
       <c r="J283" s="23" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="K283" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L283" s="25">
         <v>300</v>
       </c>
       <c r="M283" s="26" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="N283" s="27"/>
       <c r="O283" s="27">
@@ -23003,7 +22997,7 @@
         <v>24</v>
       </c>
       <c r="C284" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>25</v>
@@ -23024,16 +23018,16 @@
         <v>6</v>
       </c>
       <c r="J284" s="23" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="K284" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L284" s="25">
         <v>348</v>
       </c>
       <c r="M284" s="26" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="N284" s="27"/>
       <c r="O284" s="27">
@@ -23079,7 +23073,7 @@
         <v>24</v>
       </c>
       <c r="C285" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>25</v>
@@ -23100,10 +23094,10 @@
         <v>6</v>
       </c>
       <c r="J285" s="23" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="K285" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L285" s="25">
         <v>24</v>
@@ -23153,7 +23147,7 @@
         <v>24</v>
       </c>
       <c r="C286" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>25</v>
@@ -23174,16 +23168,16 @@
         <v>6</v>
       </c>
       <c r="J286" s="23" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="K286" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="L286" s="25">
+        <v>24</v>
+      </c>
+      <c r="M286" s="26" t="s">
         <v>294</v>
-      </c>
-      <c r="L286" s="25">
-        <v>24</v>
-      </c>
-      <c r="M286" s="26" t="s">
-        <v>316</v>
       </c>
       <c r="N286" s="27"/>
       <c r="O286" s="27">
@@ -23227,7 +23221,7 @@
         <v>24</v>
       </c>
       <c r="C287" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>25</v>
@@ -23248,10 +23242,10 @@
         <v>6</v>
       </c>
       <c r="J287" s="23" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="K287" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L287" s="25">
         <v>16400</v>
@@ -23301,7 +23295,7 @@
         <v>24</v>
       </c>
       <c r="C288" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>25</v>
@@ -23322,16 +23316,16 @@
         <v>6</v>
       </c>
       <c r="J288" s="23" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="K288" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L288" s="25">
         <v>332</v>
       </c>
       <c r="M288" s="26" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="N288" s="27"/>
       <c r="O288" s="27">
@@ -23377,7 +23371,7 @@
         <v>24</v>
       </c>
       <c r="C289" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>25</v>
@@ -23398,10 +23392,10 @@
         <v>6</v>
       </c>
       <c r="J289" s="23" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="K289" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L289" s="25">
         <v>456</v>
@@ -23453,7 +23447,7 @@
         <v>24</v>
       </c>
       <c r="C290" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>25</v>
@@ -23474,10 +23468,10 @@
         <v>6</v>
       </c>
       <c r="J290" s="23" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="K290" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L290" s="25">
         <v>30</v>
@@ -23527,7 +23521,7 @@
         <v>24</v>
       </c>
       <c r="C291" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>25</v>
@@ -23548,10 +23542,10 @@
         <v>6</v>
       </c>
       <c r="J291" s="23" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="K291" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L291" s="25">
         <v>252</v>
@@ -23601,7 +23595,7 @@
         <v>24</v>
       </c>
       <c r="C292" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>25</v>
@@ -23622,10 +23616,10 @@
         <v>7</v>
       </c>
       <c r="J292" s="23" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="K292" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L292" s="25">
         <v>200</v>
@@ -23675,7 +23669,7 @@
         <v>24</v>
       </c>
       <c r="C293" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>25</v>
@@ -23696,10 +23690,10 @@
         <v>7</v>
       </c>
       <c r="J293" s="23" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="K293" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L293" s="25">
         <v>20</v>
@@ -23749,7 +23743,7 @@
         <v>24</v>
       </c>
       <c r="C294" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>25</v>
@@ -23770,10 +23764,10 @@
         <v>7</v>
       </c>
       <c r="J294" s="23" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="K294" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L294" s="25">
         <v>4950</v>
@@ -23823,7 +23817,7 @@
         <v>24</v>
       </c>
       <c r="C295" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>25</v>
@@ -23844,16 +23838,16 @@
         <v>7</v>
       </c>
       <c r="J295" s="23" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="K295" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L295" s="25">
         <v>4</v>
       </c>
       <c r="M295" s="26" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="N295" s="27"/>
       <c r="O295" s="27"/>
@@ -23883,7 +23877,7 @@
         <v>24</v>
       </c>
       <c r="C296" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>25</v>
@@ -23904,10 +23898,10 @@
         <v>7</v>
       </c>
       <c r="J296" s="23" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="K296" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L296" s="25">
         <v>14150</v>
@@ -23959,7 +23953,7 @@
         <v>24</v>
       </c>
       <c r="C297" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>25</v>
@@ -23980,10 +23974,10 @@
         <v>7</v>
       </c>
       <c r="J297" s="23" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="K297" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L297" s="25">
         <v>70</v>
@@ -24033,7 +24027,7 @@
         <v>24</v>
       </c>
       <c r="C298" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>25</v>
@@ -24054,10 +24048,10 @@
         <v>7</v>
       </c>
       <c r="J298" s="23" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="K298" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L298" s="25">
         <v>36.5</v>
@@ -24107,7 +24101,7 @@
         <v>24</v>
       </c>
       <c r="C299" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>25</v>
@@ -24128,10 +24122,10 @@
         <v>7</v>
       </c>
       <c r="J299" s="23" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="K299" s="24" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L299" s="25">
         <v>2</v>
@@ -24181,7 +24175,7 @@
         <v>24</v>
       </c>
       <c r="C300" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>25</v>
@@ -24202,10 +24196,10 @@
         <v>7</v>
       </c>
       <c r="J300" s="23" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="K300" s="24" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="L300" s="25">
         <v>90</v>
@@ -24255,7 +24249,7 @@
         <v>24</v>
       </c>
       <c r="C301" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>25</v>
@@ -24276,16 +24270,16 @@
         <v>7</v>
       </c>
       <c r="J301" s="23" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="K301" s="24" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="L301" s="25">
         <v>114</v>
       </c>
       <c r="M301" s="26" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="N301" s="27">
         <v>6</v>
@@ -24329,7 +24323,7 @@
         <v>24</v>
       </c>
       <c r="C302" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>25</v>
@@ -24350,16 +24344,16 @@
         <v>7</v>
       </c>
       <c r="J302" s="23" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="K302" s="24" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="L302" s="25">
         <v>122</v>
       </c>
       <c r="M302" s="26" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="N302" s="27"/>
       <c r="O302" s="27">
@@ -24403,7 +24397,7 @@
         <v>24</v>
       </c>
       <c r="C303" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>25</v>
@@ -24427,7 +24421,7 @@
         <v>144</v>
       </c>
       <c r="K303" s="24" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="L303" s="25">
         <v>1060</v>
@@ -24477,7 +24471,7 @@
         <v>24</v>
       </c>
       <c r="C304" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>25</v>
@@ -24498,10 +24492,10 @@
         <v>7</v>
       </c>
       <c r="J304" s="23" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="K304" s="24" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="L304" s="25">
         <v>28775</v>
@@ -24553,7 +24547,7 @@
         <v>24</v>
       </c>
       <c r="C305" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>25</v>
@@ -24574,10 +24568,10 @@
         <v>7</v>
       </c>
       <c r="J305" s="23" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="K305" s="24" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="L305" s="25">
         <v>19125</v>
@@ -24629,7 +24623,7 @@
         <v>24</v>
       </c>
       <c r="C306" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>25</v>
@@ -24650,10 +24644,10 @@
         <v>7</v>
       </c>
       <c r="J306" s="23" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="K306" s="24" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="L306" s="25">
         <v>273</v>
@@ -24703,7 +24697,7 @@
         <v>24</v>
       </c>
       <c r="C307" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>25</v>
@@ -24724,10 +24718,10 @@
         <v>7</v>
       </c>
       <c r="J307" s="23" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="K307" s="24" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="L307" s="25">
         <v>2900</v>
@@ -24777,7 +24771,7 @@
         <v>24</v>
       </c>
       <c r="C308" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>25</v>
@@ -24798,16 +24792,16 @@
         <v>7</v>
       </c>
       <c r="J308" s="23" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="K308" s="24" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="L308" s="25">
         <v>300</v>
       </c>
       <c r="M308" s="26" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="N308" s="27"/>
       <c r="O308" s="27">
@@ -24851,7 +24845,7 @@
         <v>24</v>
       </c>
       <c r="C309" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>25</v>
@@ -24872,16 +24866,16 @@
         <v>7</v>
       </c>
       <c r="J309" s="23" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="K309" s="24" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="L309" s="25">
         <v>1463</v>
       </c>
       <c r="M309" s="26" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="N309" s="27"/>
       <c r="O309" s="27">
@@ -24925,7 +24919,7 @@
         <v>24</v>
       </c>
       <c r="C310" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>25</v>
@@ -24946,16 +24940,16 @@
         <v>7</v>
       </c>
       <c r="J310" s="23" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="K310" s="24" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="L310" s="25">
         <v>16</v>
       </c>
       <c r="M310" s="26" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="N310" s="27"/>
       <c r="O310" s="27">
@@ -25001,7 +24995,7 @@
         <v>24</v>
       </c>
       <c r="C311" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>25</v>
@@ -25022,10 +25016,10 @@
         <v>7</v>
       </c>
       <c r="J311" s="23" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="K311" s="24" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="L311" s="25">
         <v>4625</v>
@@ -25077,7 +25071,7 @@
         <v>24</v>
       </c>
       <c r="C312" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>25</v>
@@ -25101,7 +25095,7 @@
         <v>92</v>
       </c>
       <c r="K312" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L312" s="25">
         <v>18125</v>
@@ -25151,7 +25145,7 @@
         <v>24</v>
       </c>
       <c r="C313" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>25</v>
@@ -25172,10 +25166,10 @@
         <v>7</v>
       </c>
       <c r="J313" s="23" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="K313" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L313" s="25">
         <v>2000</v>
@@ -25227,7 +25221,7 @@
         <v>24</v>
       </c>
       <c r="C314" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>25</v>
@@ -25248,10 +25242,10 @@
         <v>7</v>
       </c>
       <c r="J314" s="23" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="K314" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L314" s="25">
         <v>35</v>
@@ -25301,7 +25295,7 @@
         <v>24</v>
       </c>
       <c r="C315" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>25</v>
@@ -25322,10 +25316,10 @@
         <v>7</v>
       </c>
       <c r="J315" s="36" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="K315" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L315" s="25">
         <f>5*12</f>
@@ -25361,7 +25355,7 @@
         <v>0</v>
       </c>
       <c r="X315" s="22" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="Y315" s="34">
         <v>1</v>
@@ -25378,7 +25372,7 @@
         <v>24</v>
       </c>
       <c r="C316" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>25</v>
@@ -25399,10 +25393,10 @@
         <v>7</v>
       </c>
       <c r="J316" s="23" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="K316" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L316" s="25">
         <v>5725</v>
@@ -25456,7 +25450,7 @@
         <v>24</v>
       </c>
       <c r="C317" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>25</v>
@@ -25477,10 +25471,10 @@
         <v>7</v>
       </c>
       <c r="J317" s="23" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="K317" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L317" s="25">
         <v>4240</v>
@@ -25530,7 +25524,7 @@
         <v>24</v>
       </c>
       <c r="C318" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>25</v>
@@ -25554,7 +25548,7 @@
         <v>101</v>
       </c>
       <c r="K318" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L318" s="25">
         <v>89190</v>
@@ -25606,7 +25600,7 @@
         <v>24</v>
       </c>
       <c r="C319" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>25</v>
@@ -25627,10 +25621,10 @@
         <v>7</v>
       </c>
       <c r="J319" s="23" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="K319" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L319" s="25">
         <v>1000</v>
@@ -25680,7 +25674,7 @@
         <v>24</v>
       </c>
       <c r="C320" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>25</v>
@@ -25701,10 +25695,10 @@
         <v>7</v>
       </c>
       <c r="J320" s="23" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="K320" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L320" s="25">
         <v>600</v>
@@ -25754,7 +25748,7 @@
         <v>24</v>
       </c>
       <c r="C321" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>25</v>
@@ -25775,10 +25769,10 @@
         <v>7</v>
       </c>
       <c r="J321" s="23" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="K321" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L321" s="25">
         <v>36</v>
@@ -25828,7 +25822,7 @@
         <v>24</v>
       </c>
       <c r="C322" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>25</v>
@@ -25849,10 +25843,10 @@
         <v>7</v>
       </c>
       <c r="J322" s="23" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="K322" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L322" s="25">
         <v>5570</v>
@@ -25904,7 +25898,7 @@
         <v>24</v>
       </c>
       <c r="C323" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>25</v>
@@ -25925,10 +25919,10 @@
         <v>7</v>
       </c>
       <c r="J323" s="23" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="K323" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L323" s="25">
         <v>3576</v>
@@ -25978,7 +25972,7 @@
         <v>24</v>
       </c>
       <c r="C324" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>25</v>
@@ -25999,10 +25993,10 @@
         <v>7</v>
       </c>
       <c r="J324" s="23" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="K324" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L324" s="25">
         <v>504475</v>
@@ -26054,7 +26048,7 @@
         <v>24</v>
       </c>
       <c r="C325" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>25</v>
@@ -26075,10 +26069,10 @@
         <v>7</v>
       </c>
       <c r="J325" s="23" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="K325" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L325" s="25">
         <v>10720</v>
@@ -26128,7 +26122,7 @@
         <v>24</v>
       </c>
       <c r="C326" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>25</v>
@@ -26149,10 +26143,10 @@
         <v>7</v>
       </c>
       <c r="J326" s="23" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="K326" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L326" s="25">
         <v>675</v>
@@ -26204,7 +26198,7 @@
         <v>24</v>
       </c>
       <c r="C327" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>25</v>
@@ -26225,10 +26219,10 @@
         <v>7</v>
       </c>
       <c r="J327" s="23" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="K327" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L327" s="25">
         <v>50</v>
@@ -26278,7 +26272,7 @@
         <v>24</v>
       </c>
       <c r="C328" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>25</v>
@@ -26299,10 +26293,10 @@
         <v>7</v>
       </c>
       <c r="J328" s="36" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="K328" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L328" s="25">
         <v>1</v>
@@ -26352,7 +26346,7 @@
         <v>24</v>
       </c>
       <c r="C329" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>25</v>
@@ -26373,10 +26367,10 @@
         <v>7</v>
       </c>
       <c r="J329" s="23" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="K329" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L329" s="25">
         <v>2185</v>
@@ -26426,7 +26420,7 @@
         <v>24</v>
       </c>
       <c r="C330" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>25</v>
@@ -26447,10 +26441,10 @@
         <v>7</v>
       </c>
       <c r="J330" s="23" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="K330" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L330" s="25">
         <v>866</v>
@@ -26500,7 +26494,7 @@
         <v>24</v>
       </c>
       <c r="C331" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>25</v>
@@ -26521,10 +26515,10 @@
         <v>7</v>
       </c>
       <c r="J331" s="23" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="K331" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L331" s="25">
         <v>3240</v>
@@ -26574,7 +26568,7 @@
         <v>24</v>
       </c>
       <c r="C332" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>25</v>
@@ -26595,10 +26589,10 @@
         <v>7</v>
       </c>
       <c r="J332" s="23" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="K332" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L332" s="25">
         <v>560</v>
@@ -26648,7 +26642,7 @@
         <v>24</v>
       </c>
       <c r="C333" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>25</v>
@@ -26669,10 +26663,10 @@
         <v>7</v>
       </c>
       <c r="J333" s="23" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="K333" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L333" s="25">
         <v>10850</v>
@@ -26724,7 +26718,7 @@
         <v>24</v>
       </c>
       <c r="C334" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>25</v>
@@ -26745,10 +26739,10 @@
         <v>7</v>
       </c>
       <c r="J334" s="23" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="K334" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L334" s="25">
         <v>4525</v>
@@ -26800,7 +26794,7 @@
         <v>24</v>
       </c>
       <c r="C335" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>25</v>
@@ -26821,10 +26815,10 @@
         <v>7</v>
       </c>
       <c r="J335" s="23" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="K335" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L335" s="25">
         <v>335</v>
@@ -26874,7 +26868,7 @@
         <v>24</v>
       </c>
       <c r="C336" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>25</v>
@@ -26895,10 +26889,10 @@
         <v>7</v>
       </c>
       <c r="J336" s="23" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="K336" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L336" s="25">
         <v>50</v>
@@ -26948,7 +26942,7 @@
         <v>24</v>
       </c>
       <c r="C337" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>25</v>
@@ -26969,10 +26963,10 @@
         <v>7</v>
       </c>
       <c r="J337" s="23" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="K337" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L337" s="25">
         <v>484670</v>
@@ -27024,7 +27018,7 @@
         <v>24</v>
       </c>
       <c r="C338" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>25</v>
@@ -27045,10 +27039,10 @@
         <v>7</v>
       </c>
       <c r="J338" s="23" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="K338" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L338" s="25">
         <v>3</v>
@@ -27098,7 +27092,7 @@
         <v>24</v>
       </c>
       <c r="C339" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>25</v>
@@ -27119,16 +27113,16 @@
         <v>7</v>
       </c>
       <c r="J339" s="36" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="K339" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L339" s="25">
         <v>7</v>
       </c>
       <c r="M339" s="26" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="N339" s="27">
         <v>6</v>
@@ -27172,7 +27166,7 @@
         <v>24</v>
       </c>
       <c r="C340" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>25</v>
@@ -27193,10 +27187,10 @@
         <v>7</v>
       </c>
       <c r="J340" s="36" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="K340" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L340" s="25">
         <v>262300</v>
@@ -27246,7 +27240,7 @@
         <v>24</v>
       </c>
       <c r="C341" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>25</v>
@@ -27267,10 +27261,10 @@
         <v>8</v>
       </c>
       <c r="J341" s="23" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="K341" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L341" s="25">
         <v>511840</v>
@@ -27320,7 +27314,7 @@
         <v>24</v>
       </c>
       <c r="C342" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>25</v>
@@ -27341,10 +27335,10 @@
         <v>8</v>
       </c>
       <c r="J342" s="23" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="K342" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L342" s="25">
         <v>765850</v>
@@ -27394,7 +27388,7 @@
         <v>24</v>
       </c>
       <c r="C343" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>25</v>
@@ -27415,10 +27409,10 @@
         <v>8</v>
       </c>
       <c r="J343" s="23" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="K343" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L343" s="25">
         <v>600</v>
@@ -27468,7 +27462,7 @@
         <v>24</v>
       </c>
       <c r="C344" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>25</v>
@@ -27489,16 +27483,16 @@
         <v>8</v>
       </c>
       <c r="J344" s="23" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="K344" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L344" s="25">
         <v>550</v>
       </c>
       <c r="M344" s="26" t="s">
-        <v>288</v>
+        <v>381</v>
       </c>
       <c r="N344" s="27">
         <v>20</v>
@@ -27542,7 +27536,7 @@
         <v>24</v>
       </c>
       <c r="C345" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>25</v>
@@ -27563,10 +27557,10 @@
         <v>8</v>
       </c>
       <c r="J345" s="23" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="K345" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L345" s="25">
         <v>20</v>
@@ -27616,7 +27610,7 @@
         <v>24</v>
       </c>
       <c r="C346" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>25</v>
@@ -27637,10 +27631,10 @@
         <v>8</v>
       </c>
       <c r="J346" s="23" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="K346" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L346" s="25">
         <v>8</v>
@@ -27688,7 +27682,7 @@
         <v>24</v>
       </c>
       <c r="C347" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>25</v>
@@ -27709,10 +27703,10 @@
         <v>8</v>
       </c>
       <c r="J347" s="23" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="K347" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L347" s="25">
         <v>8</v>
@@ -27762,7 +27756,7 @@
         <v>24</v>
       </c>
       <c r="C348" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>25</v>
@@ -27783,16 +27777,16 @@
         <v>8</v>
       </c>
       <c r="J348" s="23" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="K348" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L348" s="25">
         <v>110</v>
       </c>
       <c r="M348" s="26" t="s">
-        <v>287</v>
+        <v>381</v>
       </c>
       <c r="N348" s="27"/>
       <c r="O348" s="27">
@@ -27836,7 +27830,7 @@
         <v>24</v>
       </c>
       <c r="C349" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>25</v>
@@ -27857,16 +27851,16 @@
         <v>8</v>
       </c>
       <c r="J349" s="23" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="K349" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L349" s="25">
         <v>108</v>
       </c>
       <c r="M349" s="26" t="s">
-        <v>222</v>
+        <v>381</v>
       </c>
       <c r="N349" s="27"/>
       <c r="O349" s="27">
@@ -27910,7 +27904,7 @@
         <v>24</v>
       </c>
       <c r="C350" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>25</v>
@@ -27931,10 +27925,10 @@
         <v>8</v>
       </c>
       <c r="J350" s="23" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="K350" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L350" s="25">
         <v>100</v>
@@ -27984,7 +27978,7 @@
         <v>24</v>
       </c>
       <c r="C351" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>25</v>
@@ -28005,10 +27999,10 @@
         <v>8</v>
       </c>
       <c r="J351" s="23" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="K351" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L351" s="25">
         <v>200</v>
@@ -28058,7 +28052,7 @@
         <v>24</v>
       </c>
       <c r="C352" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>25</v>
@@ -28079,10 +28073,10 @@
         <v>8</v>
       </c>
       <c r="J352" s="23" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K352" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L352" s="25">
         <v>152</v>
@@ -28132,7 +28126,7 @@
         <v>24</v>
       </c>
       <c r="C353" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>25</v>
@@ -28153,10 +28147,10 @@
         <v>8</v>
       </c>
       <c r="J353" s="23" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="K353" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L353" s="25">
         <v>100</v>
@@ -28206,7 +28200,7 @@
         <v>24</v>
       </c>
       <c r="C354" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>25</v>
@@ -28227,10 +28221,10 @@
         <v>8</v>
       </c>
       <c r="J354" s="23" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K354" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L354" s="25">
         <v>145</v>
@@ -28280,7 +28274,7 @@
         <v>24</v>
       </c>
       <c r="C355" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>25</v>
@@ -28301,10 +28295,10 @@
         <v>8</v>
       </c>
       <c r="J355" s="23" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="K355" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L355" s="25">
         <v>167025</v>
@@ -28354,7 +28348,7 @@
         <v>24</v>
       </c>
       <c r="C356" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>25</v>
@@ -28378,7 +28372,7 @@
         <v>55</v>
       </c>
       <c r="K356" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L356" s="25">
         <v>1</v>
@@ -28428,7 +28422,7 @@
         <v>24</v>
       </c>
       <c r="C357" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>25</v>
@@ -28452,7 +28446,7 @@
         <v>55</v>
       </c>
       <c r="K357" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L357" s="25">
         <v>10</v>
@@ -28500,7 +28494,7 @@
         <v>24</v>
       </c>
       <c r="C358" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>25</v>
@@ -28521,10 +28515,10 @@
         <v>8</v>
       </c>
       <c r="J358" s="23" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="K358" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L358" s="25">
         <v>608200</v>
@@ -28576,7 +28570,7 @@
         <v>24</v>
       </c>
       <c r="C359" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>25</v>
@@ -28597,10 +28591,10 @@
         <v>8</v>
       </c>
       <c r="J359" s="23" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="K359" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L359" s="25">
         <v>4349650</v>
@@ -28650,7 +28644,7 @@
         <v>24</v>
       </c>
       <c r="C360" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>25</v>
@@ -28671,10 +28665,10 @@
         <v>8</v>
       </c>
       <c r="J360" s="23" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="K360" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L360" s="25">
         <v>4334675</v>
@@ -28726,7 +28720,7 @@
         <v>24</v>
       </c>
       <c r="C361" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>25</v>
@@ -28747,10 +28741,10 @@
         <v>8</v>
       </c>
       <c r="J361" s="23" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="K361" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L361" s="25">
         <v>13459625</v>
@@ -28802,7 +28796,7 @@
         <v>24</v>
       </c>
       <c r="C362" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>25</v>
@@ -28823,10 +28817,10 @@
         <v>8</v>
       </c>
       <c r="J362" s="23" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="K362" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L362" s="25">
         <v>1350</v>
@@ -28878,7 +28872,7 @@
         <v>24</v>
       </c>
       <c r="C363" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>25</v>
@@ -28899,10 +28893,10 @@
         <v>8</v>
       </c>
       <c r="J363" s="23" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="K363" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L363" s="25">
         <v>840</v>
@@ -28952,7 +28946,7 @@
         <v>24</v>
       </c>
       <c r="C364" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>25</v>
@@ -28973,10 +28967,10 @@
         <v>8</v>
       </c>
       <c r="J364" s="23" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="K364" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L364" s="25">
         <v>365120</v>
@@ -29026,7 +29020,7 @@
         <v>24</v>
       </c>
       <c r="C365" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>25</v>
@@ -29047,10 +29041,10 @@
         <v>8</v>
       </c>
       <c r="J365" s="23" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="K365" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L365" s="25">
         <v>2875</v>
@@ -29100,7 +29094,7 @@
         <v>24</v>
       </c>
       <c r="C366" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>25</v>
@@ -29121,10 +29115,10 @@
         <v>8</v>
       </c>
       <c r="J366" s="23" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="K366" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L366" s="25">
         <v>2800</v>
@@ -29174,7 +29168,7 @@
         <v>24</v>
       </c>
       <c r="C367" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>25</v>
@@ -29195,10 +29189,10 @@
         <v>8</v>
       </c>
       <c r="J367" s="23" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="K367" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L367" s="25">
         <v>35</v>
@@ -29248,7 +29242,7 @@
         <v>24</v>
       </c>
       <c r="C368" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>25</v>
@@ -29269,10 +29263,10 @@
         <v>8</v>
       </c>
       <c r="J368" s="23" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="K368" s="24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L368" s="25">
         <v>36</v>
@@ -29315,6 +29309,7 @@
       <c r="AMJ368"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Y368" xr:uid="{432F1837-4398-1B4D-B6BA-DADF48F0B5F7}"/>
   <conditionalFormatting sqref="W2:W3 W6:W368">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>0</formula>
